--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2886870.452870775</v>
+        <v>2991050.087321848</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>105.4771979831552</v>
       </c>
       <c r="C2" t="n">
-        <v>75.45713216103611</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.1974974666506</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.6326126030267755</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474421</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>81.10098877883308</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380502</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.908382160449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5442597171374</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>60.4628816931744</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>135.259425062653</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.2299870234509</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083779</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705932</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>161.017508575551</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2606,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>144.7250005831144</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387179</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3001,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>166.3208822291524</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881291</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>132.7328787290205</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.983849834639</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,13 +3319,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>71.0584634348817</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3475,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3554,10 +3556,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127826</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227934</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>100.514050896036</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289453</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4483,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.197050312641</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1514.197050312641</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V4" t="n">
-        <v>1514.197050312641</v>
+        <v>1547.722221342345</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.779880275681</v>
+        <v>1258.305051305384</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7903293776634</v>
+        <v>1030.315500407367</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9977502341333</v>
+        <v>809.5229212638368</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>563.504757272877</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>563.504757272877</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271513</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>542.6581844590803</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>127.5857343040768</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218343</v>
@@ -4802,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866152</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.40716589034</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X10" t="n">
-        <v>708.9705521677568</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.15589967238</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859342</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5731,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286661</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358754</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358754</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776361</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.62246127845</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.42636199333</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430191</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286661</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300426</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300426</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711127</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950414</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445482</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.34112979674</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868833</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456497</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874104</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650996</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673938</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018136</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812249</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668527</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626979</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310364</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310364</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>1097.964082041489</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>929.0278991135822</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>778.9112597012464</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>630.9981661188533</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>1279.612546871729</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,31 +6451,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C31" t="n">
-        <v>853.9360528261844</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="32">
@@ -6692,43 +6694,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276704</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831311</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630049</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C34" t="n">
-        <v>776.466420735098</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227623</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403692</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403692</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552491</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6922,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3212.252935505192</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3839.850899059799</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.30868757553</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>853.594109445026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326902</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7184,7 +7186,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,16 +7195,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433592</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7375,7 +7377,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.35591459056</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118215</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289435</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.062654156521</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156521</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711128</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950415</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445483</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445483</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7600,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="44">
@@ -7637,61 +7639,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385793</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385793</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.914133601552</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228104</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.89058478271</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021997</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398595</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398595</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.843151638089</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683287</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.073233536594895e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431581</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.36248435538607</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597595</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903267</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>125.50548976104</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.6960474398168799</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434057</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>119.8635921600917</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>15.88259428919187</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>6.3108630115849</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168747</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652909</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.9259388694754591</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.008947440555</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968256</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365058</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26433,31 +26435,31 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830367.1368575142</v>
+        <v>-830367.1368575147</v>
       </c>
       <c r="C6" t="n">
-        <v>498377.608870078</v>
+        <v>498377.6088700779</v>
       </c>
       <c r="D6" t="n">
-        <v>498377.6088700781</v>
+        <v>498377.6088700783</v>
       </c>
       <c r="E6" t="n">
-        <v>247152.697923425</v>
+        <v>247152.6979234252</v>
       </c>
       <c r="F6" t="n">
+        <v>572565.1597307803</v>
+      </c>
+      <c r="G6" t="n">
+        <v>572565.1597307808</v>
+      </c>
+      <c r="H6" t="n">
         <v>572565.1597307804</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>572565.1597307808</v>
+      </c>
+      <c r="J6" t="n">
+        <v>355033.957333503</v>
+      </c>
+      <c r="K6" t="n">
         <v>572565.1597307804</v>
       </c>
-      <c r="H6" t="n">
-        <v>572565.1597307803</v>
-      </c>
-      <c r="I6" t="n">
-        <v>572565.1597307802</v>
-      </c>
-      <c r="J6" t="n">
-        <v>355033.9573335031</v>
-      </c>
-      <c r="K6" t="n">
-        <v>572565.1597307805</v>
-      </c>
       <c r="L6" t="n">
-        <v>572565.1597307805</v>
+        <v>572565.1597307809</v>
       </c>
       <c r="M6" t="n">
-        <v>487510.1317952688</v>
+        <v>487510.1317952684</v>
       </c>
       <c r="N6" t="n">
+        <v>572565.1597307804</v>
+      </c>
+      <c r="O6" t="n">
         <v>572565.1597307806</v>
       </c>
-      <c r="O6" t="n">
-        <v>572565.1597307802</v>
-      </c>
       <c r="P6" t="n">
-        <v>572565.1597307805</v>
+        <v>572565.1597307808</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="C2" t="n">
-        <v>289.8157596099715</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3514518095186361</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>251.5050307208012</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887364</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>325.7750569628784</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276415</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.67627119164581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463432</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>234.1448826941461</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>150.9524131429599</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.47966836558621</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.542772458138</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175077</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,13 +32794,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33031,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33196,7 +33198,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236508</v>
@@ -33260,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948329</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>400.8433522134838</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,28 +33496,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578885</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443696</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236508</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33743,19 +33745,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>301.644515672455</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33974,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375116</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34214,22 +34216,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663286</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721165</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175218</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281453</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,10 +36928,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>266.8689447991536</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37081,7 +37083,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587019</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280106</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37622,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.1808046631526</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2991050.087321848</v>
+        <v>2987037.477307854</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.4771979831552</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>208.709974916969</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>113.9059869644534</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6326126030267755</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>81.10098877883308</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>159.7403262583137</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>77.31354443380502</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>200.69399937567</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>60.4628816931744</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>56.40766130334966</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>135.259425062653</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>171.9586765026952</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.93222849083779</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>80.07147829118306</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>161.017508575551</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>144.7250005831144</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>166.3208822291524</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881291</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>132.7328787290205</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3556,10 +3556,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5981994227934</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>115.7228684476123</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1514.348043559524</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1145.385526619113</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1145.385526619113</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1145.385526619113</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>734.3996218295051</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>319.3271716745016</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875186</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899374</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.8744564335971</v>
+        <v>645.3078929297407</v>
       </c>
       <c r="C4" t="n">
-        <v>627.8744564335971</v>
+        <v>476.3717100018338</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971665</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1547.722221342345</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.305051305384</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X4" t="n">
-        <v>1030.315500407367</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.5229212638368</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796274</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796274</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>563.504757272877</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>563.504757272877</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>481.584566587187</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>3053.961288228877</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2701.192632958763</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995018</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C7" t="n">
-        <v>294.723245171595</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592592</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218345</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1724.573336597917</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>1469.88884839203</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1180.471678355069</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732717</v>
+        <v>952.4821274570515</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297416</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855438</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.909787855438</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>953.6440892486878</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>953.6440892486878</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>542.6581844590803</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>127.5857343040768</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3268.628385949221</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3015.097909223058</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2684.035021879487</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2331.266366609373</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2331.266366609373</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1790.668866207025</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1790.668866207025</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1501.251696170064</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703114</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579756</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755825</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>250.5823850776722</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>250.5823850776722</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5731,49 +5731,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597624</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6074,22 +6074,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1097.964082041489</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.0278991135822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>778.9112597012464</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>630.9981661188533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1500.405126015259</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1279.612546871729</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459586</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180517</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761984</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,25 +6949,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.073233536594895e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>66.36248435538607</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>87.17534280744478</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6960474398168799</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>119.8635921600917</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>15.88259428919187</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>118.3918499711696</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9259388694754591</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>32.8926045706001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846406</v>
@@ -26322,40 +26322,40 @@
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316951</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316949</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26435,13 +26435,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26450,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830367.1368575147</v>
+        <v>-830367.1368575143</v>
       </c>
       <c r="C6" t="n">
         <v>498377.6088700779</v>
       </c>
       <c r="D6" t="n">
-        <v>498377.6088700783</v>
+        <v>498377.6088700779</v>
       </c>
       <c r="E6" t="n">
-        <v>247152.6979234252</v>
+        <v>246805.3186690681</v>
       </c>
       <c r="F6" t="n">
-        <v>572565.1597307803</v>
+        <v>572217.7804764234</v>
       </c>
       <c r="G6" t="n">
-        <v>572565.1597307808</v>
+        <v>572217.7804764234</v>
       </c>
       <c r="H6" t="n">
-        <v>572565.1597307804</v>
+        <v>572217.7804764232</v>
       </c>
       <c r="I6" t="n">
-        <v>572565.1597307808</v>
+        <v>572217.7804764237</v>
       </c>
       <c r="J6" t="n">
-        <v>355033.957333503</v>
+        <v>354686.5780791462</v>
       </c>
       <c r="K6" t="n">
-        <v>572565.1597307804</v>
+        <v>572217.7804764234</v>
       </c>
       <c r="L6" t="n">
-        <v>572565.1597307809</v>
+        <v>572217.7804764236</v>
       </c>
       <c r="M6" t="n">
-        <v>487510.1317952684</v>
+        <v>487162.7525409118</v>
       </c>
       <c r="N6" t="n">
-        <v>572565.1597307804</v>
+        <v>572217.7804764237</v>
       </c>
       <c r="O6" t="n">
-        <v>572565.1597307806</v>
+        <v>572217.7804764238</v>
       </c>
       <c r="P6" t="n">
-        <v>572565.1597307808</v>
+        <v>572217.7804764236</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,28 +26807,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,26 +26959,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277.2566436803253</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85.89778947035143</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.70948605375891</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>251.5050307208012</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>325.7750569628784</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.17764388130649</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12041821276415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>85.51783882994286</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>234.1448826941461</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>147.5103088362705</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9524131429599</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-4.828951333145716e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>137.7376326175077</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>400.8433522134838</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>537.6437863443696</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321073</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>440.9755796648388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>6.395920534174421</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>132.4173135558158</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>395.0475418999251</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902408</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876629</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2987037.477307854</v>
+        <v>2988798.00761064</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>279.3751023006579</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>208.709974916969</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>113.9059869644534</v>
+        <v>54.2600367291013</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>159.7403262583137</v>
+        <v>159.7403262583155</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>200.69399937567</v>
+        <v>200.6939993756705</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>56.40766130334966</v>
+        <v>56.4076613033501</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>171.9586765026952</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E16" t="n">
-        <v>95.81917536083697</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881299</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>80.07147829118306</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>20.431120686132</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559524</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619113</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1145.385526619113</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1145.385526619113</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>734.3996218295051</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>319.3271716745016</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559524</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>645.3078929297407</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>476.3717100018338</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971288</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732708</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297407</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4564,37 +4564,37 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
         <v>3053.961288228877</v>
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4713,28 +4713,28 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,16 +4746,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
         <v>1724.573336597917</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.7594328861248</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458822</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.366912656562</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.29168600076</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.607197794873</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757912</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598947</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163646</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,61 +5412,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
         <v>1907.987318831765</v>
@@ -5475,13 +5475,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
         <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,19 +6244,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>196.5408620426159</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6609,13 +6609,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,13 +6721,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,55 +7171,55 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7326,10 +7326,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>45.44677382459309</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E16" t="n">
-        <v>50.61478728573221</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>87.17534280744478</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>119.8635921600919</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="13">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365058</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>4.102980024699405e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>1.569592313899193e-10</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316949</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181806</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181809</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830367.1368575143</v>
+        <v>-830367.136857514</v>
       </c>
       <c r="C6" t="n">
-        <v>498377.6088700779</v>
+        <v>498377.6088700781</v>
       </c>
       <c r="D6" t="n">
-        <v>498377.6088700779</v>
+        <v>498377.608870078</v>
       </c>
       <c r="E6" t="n">
-        <v>246805.3186690681</v>
+        <v>247117.9599979896</v>
       </c>
       <c r="F6" t="n">
-        <v>572217.7804764234</v>
+        <v>572530.4218053448</v>
       </c>
       <c r="G6" t="n">
-        <v>572217.7804764234</v>
+        <v>572530.421805345</v>
       </c>
       <c r="H6" t="n">
-        <v>572217.7804764232</v>
+        <v>572530.4218053448</v>
       </c>
       <c r="I6" t="n">
-        <v>572217.7804764237</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="J6" t="n">
-        <v>354686.5780791462</v>
+        <v>354999.2194080672</v>
       </c>
       <c r="K6" t="n">
-        <v>572217.7804764234</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="L6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.421805345</v>
       </c>
       <c r="M6" t="n">
-        <v>487162.7525409118</v>
+        <v>487475.393869833</v>
       </c>
       <c r="N6" t="n">
-        <v>572217.7804764237</v>
+        <v>572530.421805345</v>
       </c>
       <c r="O6" t="n">
-        <v>572217.7804764238</v>
+        <v>572530.4218053451</v>
       </c>
       <c r="P6" t="n">
-        <v>572217.7804764236</v>
+        <v>572530.4218053448</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.128725030874256e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.128725030874256e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>85.89778947034961</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85.89778947035143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>34.70948605375891</v>
+        <v>94.35543628911105</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.17764388130649</v>
+        <v>44.17764388130468</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>85.51783882994286</v>
+        <v>85.51783882994241</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>147.5103088362705</v>
+        <v>147.51030883627</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-4.303443726367004e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.590653145880544e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-4.828951333145716e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
